--- a/test_proximal_tilt.xlsx
+++ b/test_proximal_tilt.xlsx
@@ -26,159 +26,159 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
   <si>
+    <t>tiltMap_ 2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>tiltMap_ 3</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>tiltMap_ 4</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>tiltMap_ 5</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>tiltMap_ 6</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>tiltMap_ 7</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>tiltMap_ 8</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>tiltMap_ 9</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>tiltMap_10</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>tiltMap_11</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>tiltMap_12</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>tiltMap_13</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>curvature_ 1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>curvature_ 2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>curvature_ 3</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>curvature_ 4</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>curvature_ 5</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>curvature_ 6</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>curvature_ 7</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>curvature_ 8</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>curvature_ 9</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>curvature_10</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>curvature_11</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>curvature_12</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>curvature_13</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>slopeOrientation_ 1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>slopeOrientation_ 2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>slopeOrientation_ 3</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>slopeOrientation_ 4</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>slopeOrientation_ 5</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>slopeOrientation_ 6</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>slopeOrientation_ 7</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>slopeOrientation_ 8</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>slopeOrientation_ 9</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>slopeOrientation_10</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>slopeOrientation_11</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>slopeOrientation_12</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>slopeOrientation_13</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>tiltMap_ 1</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>tiltMap_ 2</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>tiltMap_ 3</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>tiltMap_ 4</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>tiltMap_ 5</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>tiltMap_ 6</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>tiltMap_ 7</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>tiltMap_ 8</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>tiltMap_ 9</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>tiltMap_10</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>tiltMap_11</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>tiltMap_12</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>tiltMap_13</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>curvature_ 1</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>curvature_ 2</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>curvature_ 3</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>curvature_ 4</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>curvature_ 5</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>curvature_ 6</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>curvature_ 7</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>curvature_ 8</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>curvature_ 9</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>curvature_10</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>curvature_11</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>curvature_12</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>curvature_13</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>slopeOrientation_ 1</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>slopeOrientation_ 2</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>slopeOrientation_ 3</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>slopeOrientation_ 4</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>slopeOrientation_ 5</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>slopeOrientation_ 6</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>slopeOrientation_ 7</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>slopeOrientation_ 8</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>slopeOrientation_ 9</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>slopeOrientation_10</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>slopeOrientation_11</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>slopeOrientation_12</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>slopeOrientation_13</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -553,121 +553,121 @@
   <sheetData>
     <row r="1" spans="1:39" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>18</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>19</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>20</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>21</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>22</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AC1" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AD1" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AE1" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AF1" t="s">
         <v>30</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AG1" t="s">
         <v>31</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AH1" t="s">
         <v>32</v>
       </c>
-      <c r="AH1" t="s">
+      <c r="AI1" t="s">
         <v>33</v>
       </c>
-      <c r="AI1" t="s">
+      <c r="AJ1" t="s">
         <v>34</v>
       </c>
-      <c r="AJ1" t="s">
+      <c r="AK1" t="s">
         <v>35</v>
       </c>
-      <c r="AK1" t="s">
+      <c r="AL1" t="s">
         <v>36</v>
       </c>
-      <c r="AL1" t="s">
+      <c r="AM1" t="s">
         <v>37</v>
-      </c>
-      <c r="AM1" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:39" x14ac:dyDescent="0.4">
